--- a/Excel-XLSX/UN-MYA.xlsx
+++ b/Excel-XLSX/UN-MYA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,211 @@
     <t>1</t>
   </si>
   <si>
-    <t>K7iRFs</t>
+    <t>ay5DWk</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>58500</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>67290</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>62015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>339200</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>430400</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>372000</t>
+  </si>
+  <si>
+    <t>27383</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>376500</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>451089</t>
+  </si>
+  <si>
+    <t>25265</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>375016</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>353108</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>370306</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>312018</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>370320</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>671011</t>
+  </si>
+  <si>
+    <t>130432</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>1504848</t>
+  </si>
+  <si>
+    <t>325206</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1845208</t>
+  </si>
+  <si>
+    <t>89402</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>2005</t>
@@ -105,280 +309,94 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>236495</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>58500</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>20</t>
   </si>
   <si>
     <t>669500</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>67290</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>21</t>
   </si>
   <si>
     <t>723571</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>62015</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>797388</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>339200</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>25</t>
   </si>
   <si>
     <t>808075</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>430400</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>372000</t>
-  </si>
-  <si>
-    <t>27383</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>810000</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>376500</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>451089</t>
-  </si>
-  <si>
-    <t>25265</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>938000</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>375016</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>30</t>
   </si>
   <si>
     <t>925939</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>353108</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>31</t>
   </si>
   <si>
     <t>621514</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>370306</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>32</t>
   </si>
   <si>
     <t>620939</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>312018</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>33</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>370320</t>
-  </si>
-  <si>
-    <t>2992</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>671011</t>
-  </si>
-  <si>
-    <t>130432</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>1099103</t>
-  </si>
-  <si>
-    <t>125316</t>
-  </si>
-  <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>630000</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
 </sst>
 </file>
@@ -763,7 +781,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -868,43 +886,43 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -918,61 +936,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -986,10 +1004,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1004,43 +1022,43 @@
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1054,61 +1072,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1122,10 +1140,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1140,43 +1158,43 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1190,61 +1208,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1258,61 +1276,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1326,61 +1344,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1394,10 +1412,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1412,43 +1430,43 @@
         <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1462,61 +1480,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1548,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -1548,43 +1566,43 @@
         <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1598,61 +1616,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1666,10 +1684,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>25</v>
@@ -1684,43 +1702,43 @@
         <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1734,61 +1752,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1802,10 +1820,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -1820,43 +1838,43 @@
         <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1870,61 +1888,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1956,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -1956,43 +1974,43 @@
         <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2006,61 +2024,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2074,61 +2092,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2142,61 +2160,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2210,61 +2228,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2278,61 +2296,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2346,61 +2364,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2414,61 +2432,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2482,61 +2500,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2550,61 +2568,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2618,61 +2636,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2686,61 +2704,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2754,61 +2772,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2822,61 +2840,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2890,61 +2908,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2958,61 +2976,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3026,61 +3044,61 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3094,61 +3112,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3162,61 +3180,197 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MYA.xlsx
+++ b/Excel-XLSX/UN-MYA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ay5DWk</t>
+    <t>cjg3Y6</t>
   </si>
   <si>
     <t>2006</t>
@@ -285,10 +285,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>1845208</t>
-  </si>
-  <si>
-    <t>89402</t>
+    <t>2607645</t>
+  </si>
+  <si>
+    <t>276612</t>
   </si>
   <si>
     <t>19</t>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>632789</t>
   </si>
 </sst>
 </file>
@@ -921,8 +924,8 @@
       <c r="U2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -989,8 +992,8 @@
       <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1057,8 +1060,8 @@
       <c r="U4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>31</v>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1125,8 +1128,8 @@
       <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1193,8 +1196,8 @@
       <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>31</v>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1261,8 +1264,8 @@
       <c r="U7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>31</v>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1329,8 +1332,8 @@
       <c r="U8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>31</v>
+      <c r="V8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1397,8 +1400,8 @@
       <c r="U9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>31</v>
+      <c r="V9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1465,8 +1468,8 @@
       <c r="U10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>31</v>
+      <c r="V10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1533,8 +1536,8 @@
       <c r="U11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>31</v>
+      <c r="V11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1601,8 +1604,8 @@
       <c r="U12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>31</v>
+      <c r="V12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1669,8 +1672,8 @@
       <c r="U13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>31</v>
+      <c r="V13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1737,8 +1740,8 @@
       <c r="U14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>31</v>
+      <c r="V14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1805,8 +1808,8 @@
       <c r="U15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>31</v>
+      <c r="V15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1873,8 +1876,8 @@
       <c r="U16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>31</v>
+      <c r="V16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1941,8 +1944,8 @@
       <c r="U17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>31</v>
+      <c r="V17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2145,8 +2148,8 @@
       <c r="U20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>31</v>
+      <c r="V20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2213,8 +2216,8 @@
       <c r="U21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>31</v>
+      <c r="V21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2281,8 +2284,8 @@
       <c r="U22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>31</v>
+      <c r="V22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2349,8 +2352,8 @@
       <c r="U23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>31</v>
+      <c r="V23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -2417,8 +2420,8 @@
       <c r="U24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>31</v>
+      <c r="V24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2485,8 +2488,8 @@
       <c r="U25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>31</v>
+      <c r="V25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -2553,8 +2556,8 @@
       <c r="U26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>31</v>
+      <c r="V26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2621,8 +2624,8 @@
       <c r="U27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>31</v>
+      <c r="V27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -2689,8 +2692,8 @@
       <c r="U28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>31</v>
+      <c r="V28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -2757,8 +2760,8 @@
       <c r="U29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>31</v>
+      <c r="V29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -2825,8 +2828,8 @@
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>31</v>
+      <c r="V30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2893,8 +2896,8 @@
       <c r="U31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>31</v>
+      <c r="V31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -2961,8 +2964,8 @@
       <c r="U32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>31</v>
+      <c r="V32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -3029,8 +3032,8 @@
       <c r="U33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>31</v>
+      <c r="V33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -3097,8 +3100,8 @@
       <c r="U34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>31</v>
+      <c r="V34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -3165,8 +3168,8 @@
       <c r="U35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>31</v>
+      <c r="V35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -3233,8 +3236,8 @@
       <c r="U36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>31</v>
+      <c r="V36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -3361,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>29</v>

--- a/Excel-XLSX/UN-MYA.xlsx
+++ b/Excel-XLSX/UN-MYA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,31 +90,58 @@
     <t>cjg3Y6</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>236495</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>58500</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>669500</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2007</t>
@@ -123,19 +150,31 @@
     <t>67290</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>723571</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>2010</t>
@@ -144,7 +183,13 @@
     <t>62015</t>
   </si>
   <si>
-    <t>6</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>797388</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>2011</t>
@@ -153,7 +198,13 @@
     <t>339200</t>
   </si>
   <si>
-    <t>7</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>808075</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>2012</t>
@@ -162,7 +213,10 @@
     <t>430400</t>
   </si>
   <si>
-    <t>8</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>2013</t>
@@ -174,7 +228,13 @@
     <t>27383</t>
   </si>
   <si>
-    <t>9</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>810000</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>2014</t>
@@ -183,7 +243,10 @@
     <t>376500</t>
   </si>
   <si>
-    <t>10</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>2015</t>
@@ -195,7 +258,13 @@
     <t>25265</t>
   </si>
   <si>
-    <t>11</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>938000</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>2016</t>
@@ -207,7 +276,13 @@
     <t>1346</t>
   </si>
   <si>
-    <t>12</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>925939</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>2017</t>
@@ -219,7 +294,13 @@
     <t>684</t>
   </si>
   <si>
-    <t>13</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>621514</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>2018</t>
@@ -231,7 +312,13 @@
     <t>379</t>
   </si>
   <si>
-    <t>14</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>620939</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>2019</t>
@@ -243,7 +330,13 @@
     <t>1641</t>
   </si>
   <si>
-    <t>15</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2020</t>
@@ -255,7 +348,10 @@
     <t>2992</t>
   </si>
   <si>
-    <t>16</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>2021</t>
@@ -267,7 +363,10 @@
     <t>130432</t>
   </si>
   <si>
-    <t>17</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>2022</t>
@@ -279,7 +378,13 @@
     <t>325206</t>
   </si>
   <si>
-    <t>18</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>630000</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2023</t>
@@ -291,115 +396,28 @@
     <t>276612</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>236495</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>669500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>723571</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>797388</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>808075</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>810000</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>938000</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>925939</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>621514</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>620939</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>630000</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
     <t>632789</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>3191968</t>
+  </si>
+  <si>
+    <t>251624</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>633975</t>
   </si>
 </sst>
 </file>
@@ -784,7 +802,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -889,43 +907,43 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -939,61 +957,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1007,10 +1025,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1025,43 +1043,43 @@
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1075,61 +1093,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1143,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1161,43 +1179,43 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1211,61 +1229,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1279,10 +1297,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1297,43 +1315,43 @@
         <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1347,61 +1365,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1415,10 +1433,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1433,43 +1451,43 @@
         <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1483,61 +1501,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1551,10 +1569,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -1569,43 +1587,43 @@
         <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1619,61 +1637,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1687,10 +1705,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>25</v>
@@ -1705,43 +1723,43 @@
         <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1755,61 +1773,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1823,10 +1841,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -1841,43 +1859,43 @@
         <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1891,61 +1909,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1977,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -1977,43 +1995,43 @@
         <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2027,61 +2045,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2095,61 +2113,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2163,61 +2181,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2231,61 +2249,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2299,61 +2317,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2367,61 +2385,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2435,61 +2453,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2503,61 +2521,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="T26" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2571,61 +2589,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="R27" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2639,61 +2657,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2707,61 +2725,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2775,61 +2793,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2843,61 +2861,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2911,61 +2929,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -2979,61 +2997,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3047,61 +3065,61 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3115,61 +3133,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3183,61 +3201,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>121</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3251,61 +3269,61 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="R37" s="2" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3322,58 +3340,194 @@
         <v>126</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>127</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MYA.xlsx
+++ b/Excel-XLSX/UN-MYA.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>cjg3Y6</t>
+    <t>6qjL6E</t>
   </si>
   <si>
     <t>2005</t>
@@ -408,16 +408,16 @@
     <t>2024</t>
   </si>
   <si>
-    <t>3191968</t>
-  </si>
-  <si>
-    <t>251624</t>
+    <t>3513867</t>
+  </si>
+  <si>
+    <t>377566</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>633975</t>
+    <t>619429</t>
   </si>
 </sst>
 </file>
